--- a/public/intermediary_data.xlsx
+++ b/public/intermediary_data.xlsx
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -467,10 +467,71 @@
         <v>Account Number</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Mr</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Test</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Test</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Test</v>
+      </c>
+      <c r="E2" t="str">
+        <v>M</v>
+      </c>
+      <c r="F2" t="str">
+        <v>254754070314</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Mahiga Mairu Avenue</v>
+      </c>
+      <c r="H2" t="str">
+        <v>nID</v>
+      </c>
+      <c r="I2" t="str">
+        <v>20538078</v>
+      </c>
+      <c r="J2" t="str">
+        <v>A004195617L</v>
+      </c>
+      <c r="K2" t="str">
+        <v>1987-01-01</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Kuwait</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Nairobi</v>
+      </c>
+      <c r="N2" t="str">
+        <v>test@123.com</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Birdview insurance</v>
+      </c>
+      <c r="P2" t="str">
+        <v>254750070314</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>test Bank</v>
+      </c>
+      <c r="R2" t="str">
+        <v>Test</v>
+      </c>
+      <c r="S2" t="str">
+        <v>Test Street</v>
+      </c>
+      <c r="T2" t="str">
+        <v>1212323244</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T2"/>
   </ignoredErrors>
 </worksheet>
 </file>
